--- a/implementation/src/test/resouces/Dados TASY.xlsx
+++ b/implementation/src/test/resouces/Dados TASY.xlsx
@@ -346,16 +346,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -395,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -410,7 +402,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,10 +982,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1151,9 +1142,6 @@
       <c r="K4" s="3">
         <v>20091123</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="H12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/implementation/src/test/resouces/Dados TASY.xlsx
+++ b/implementation/src/test/resouces/Dados TASY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Pacientes" sheetId="11" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Resultados Laboratório" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <webPublishing codePage="65001"/>
 </workbook>
 </file>
 
@@ -698,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -984,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD12"/>
     </sheetView>
   </sheetViews>
